--- a/biology/Botanique/Forêt_de_la_Crête/Forêt_de_la_Crête.xlsx
+++ b/biology/Botanique/Forêt_de_la_Crête/Forêt_de_la_Crête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_la_Cr%C3%AAte</t>
+          <t>Forêt_de_la_Crête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de la Crête est une forêt départemento-domaniale et régionale  française de l'île de La Réunion, département d'outre-mer dans le sud-ouest de l'océan Indien.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_la_Cr%C3%AAte</t>
+          <t>Forêt_de_la_Crête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve dans la forêt de la Crête l'une des deux sous-espèces de geckos verts des Hauts, Phelsuma borbonica mater.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_la_Cr%C3%AAte</t>
+          <t>Forêt_de_la_Crête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La végétation est composée de bois de couleur des Hauts ; les troncs sont colonisés par les plantes épiphytes, dont de remarquables orchidées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La végétation est composée de bois de couleur des Hauts ; les troncs sont colonisés par les plantes épiphytes, dont de remarquables orchidées.
 </t>
         </is>
       </c>
